--- a/設計/EscapeToTheSpot(設計)＿うｐ .xlsx
+++ b/設計/EscapeToTheSpot(設計)＿うｐ .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="19200" windowHeight="12096" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="19200" windowHeight="12096" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="開発概要" sheetId="3" r:id="rId1"/>
@@ -6182,8 +6182,8 @@
     <dgm:cxn modelId="{E9BAD75D-72E8-4743-A6CE-C24D611EE14B}" type="presOf" srcId="{A8A01B1E-9F3B-4487-971C-8CFB1EE524AF}" destId="{F20C471C-BF06-4A7A-9A39-E61A09380949}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{8BE774C9-C852-404B-A157-DF543B9000AB}" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{2EB782BA-0526-4051-9BB1-283EA3A601C8}" srcOrd="0" destOrd="0" parTransId="{D1B6EB16-DA67-4570-85ED-1D15E0CB3930}" sibTransId="{CF07EA4D-5461-490A-9A55-BB0696C2D3AD}"/>
     <dgm:cxn modelId="{A8E6437F-B689-4EC6-9A5F-B49301D6846E}" type="presOf" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{07632697-76CD-413C-88EE-5819BEF91C86}" srcId="{56103FCD-29F2-4B42-8404-91B73B166952}" destId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" srcOrd="0" destOrd="0" parTransId="{16527AAD-77CD-4D35-9C57-AA88A0052C4C}" sibTransId="{41A2FBC2-0E44-47A7-BE44-305EC57D3E45}"/>
     <dgm:cxn modelId="{AA2849F7-5711-41C9-9EB9-E7D3D2916C47}" type="presOf" srcId="{308324EC-5AF9-49E8-8B42-FD8688C4947F}" destId="{94DE55EC-7771-40EC-A070-7B4619CDF26F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
-    <dgm:cxn modelId="{07632697-76CD-413C-88EE-5819BEF91C86}" srcId="{56103FCD-29F2-4B42-8404-91B73B166952}" destId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" srcOrd="0" destOrd="0" parTransId="{16527AAD-77CD-4D35-9C57-AA88A0052C4C}" sibTransId="{41A2FBC2-0E44-47A7-BE44-305EC57D3E45}"/>
     <dgm:cxn modelId="{89B213AE-7F85-42CB-826D-61A9131212CF}" type="presOf" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{E53176A1-512B-4B5C-BB2A-913DED4A22A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{9C9BE6A1-2109-46D1-9E24-625E6C5DA985}" type="presOf" srcId="{2EB782BA-0526-4051-9BB1-283EA3A601C8}" destId="{B7384D85-C812-40CA-9DBA-40B6CC130C9B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{A9C1CDBB-76FF-4CF8-B64E-41EA43C30BF2}" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{B5C97D2E-A0A4-448C-8255-56A271FDA188}" srcOrd="2" destOrd="0" parTransId="{308324EC-5AF9-49E8-8B42-FD8688C4947F}" sibTransId="{DBE24C96-6112-4FA0-93EF-229B4246BB99}"/>
@@ -6395,8 +6395,8 @@
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{022EC8CC-EB7E-4841-A5EB-48C464A446A7}" type="presOf" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{E53176A1-512B-4B5C-BB2A-913DED4A22A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F0D62D2F-CB2A-4C41-98CA-C9FBE2EE9993}" type="presOf" srcId="{56103FCD-29F2-4B42-8404-91B73B166952}" destId="{E42C9193-20D7-4C51-ABDA-63DB5879F329}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{27933252-271E-448D-9389-B5D6CF590FC7}" type="presOf" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
-    <dgm:cxn modelId="{F0D62D2F-CB2A-4C41-98CA-C9FBE2EE9993}" type="presOf" srcId="{56103FCD-29F2-4B42-8404-91B73B166952}" destId="{E42C9193-20D7-4C51-ABDA-63DB5879F329}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{07632697-76CD-413C-88EE-5819BEF91C86}" srcId="{56103FCD-29F2-4B42-8404-91B73B166952}" destId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" srcOrd="0" destOrd="0" parTransId="{16527AAD-77CD-4D35-9C57-AA88A0052C4C}" sibTransId="{41A2FBC2-0E44-47A7-BE44-305EC57D3E45}"/>
     <dgm:cxn modelId="{B38FBDB3-BD25-412B-82E4-D61892A018BB}" type="presOf" srcId="{D53EC045-DC2C-414C-B977-6F669E741AF8}" destId="{58CF9B06-E1E5-4863-B9E8-1A3B799C3537}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{D3B7B76D-99AD-4848-8510-924ABADF3589}" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{D53EC045-DC2C-414C-B977-6F669E741AF8}" srcOrd="0" destOrd="0" parTransId="{3A22512D-2F6B-4E63-837B-2D0CE493F030}" sibTransId="{0874BAA8-90BC-4446-B82F-5EC5E81274D0}"/>
@@ -7932,7 +7932,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2296" y="694227"/>
+          <a:off x="2296" y="722802"/>
           <a:ext cx="3098857" cy="284370"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8016,7 +8016,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2296" y="694227"/>
+        <a:off x="2296" y="722802"/>
         <a:ext cx="3098857" cy="284370"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -8027,7 +8027,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="312182" y="978597"/>
+          <a:off x="312182" y="1007172"/>
           <a:ext cx="309885" cy="624929"/>
         </a:xfrm>
         <a:custGeom>
@@ -8085,7 +8085,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="622068" y="1310480"/>
+          <a:off x="622068" y="1339055"/>
           <a:ext cx="3010375" cy="586092"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8151,7 +8151,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="622068" y="1310480"/>
+        <a:off x="622068" y="1339055"/>
         <a:ext cx="3010375" cy="586092"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -8174,8 +8174,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm flipH="1">
-          <a:off x="223538" y="0"/>
-          <a:ext cx="889897" cy="623072"/>
+          <a:off x="201280" y="0"/>
+          <a:ext cx="909128" cy="636537"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8242,8 +8242,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm flipH="1">
-        <a:off x="223538" y="0"/>
-        <a:ext cx="889897" cy="623072"/>
+        <a:off x="201280" y="0"/>
+        <a:ext cx="909128" cy="636537"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{807332A5-227E-4ADC-B889-F316431DC2AF}">
@@ -8253,8 +8253,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="312528" y="623072"/>
-          <a:ext cx="109289" cy="467387"/>
+          <a:off x="292193" y="636537"/>
+          <a:ext cx="111651" cy="477578"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8268,10 +8268,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="467387"/>
+                <a:pt x="0" y="477578"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="109289" y="467387"/>
+                <a:pt x="111651" y="477578"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8311,8 +8311,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="421817" y="778924"/>
-          <a:ext cx="1841324" cy="623072"/>
+          <a:off x="403844" y="795847"/>
+          <a:ext cx="1881117" cy="636537"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8382,8 +8382,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="421817" y="778924"/>
-        <a:ext cx="1841324" cy="623072"/>
+        <a:off x="403844" y="795847"/>
+        <a:ext cx="1881117" cy="636537"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -8405,8 +8405,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm flipH="1">
-          <a:off x="123282" y="0"/>
-          <a:ext cx="1338271" cy="629783"/>
+          <a:off x="89108" y="0"/>
+          <a:ext cx="1368458" cy="643988"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8473,8 +8473,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm flipH="1">
-        <a:off x="123282" y="0"/>
-        <a:ext cx="1338271" cy="629783"/>
+        <a:off x="89108" y="0"/>
+        <a:ext cx="1368458" cy="643988"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{807332A5-227E-4ADC-B889-F316431DC2AF}">
@@ -8484,8 +8484,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="257109" y="629783"/>
-          <a:ext cx="145959" cy="279644"/>
+          <a:off x="225954" y="643988"/>
+          <a:ext cx="149251" cy="285951"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8499,10 +8499,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="279644"/>
+                <a:pt x="0" y="285951"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="145959" y="279644"/>
+                <a:pt x="149251" y="285951"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8542,8 +8542,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="403068" y="723238"/>
-          <a:ext cx="1957387" cy="372377"/>
+          <a:off x="375206" y="739552"/>
+          <a:ext cx="2001539" cy="380776"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8609,8 +8609,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="403068" y="723238"/>
-        <a:ext cx="1957387" cy="372377"/>
+        <a:off x="375206" y="739552"/>
+        <a:ext cx="2001539" cy="380776"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{971A5E3E-65D7-47C0-9BC1-DF941CE250F8}">
@@ -8620,8 +8620,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="257109" y="629783"/>
-          <a:ext cx="145959" cy="745115"/>
+          <a:off x="225954" y="643988"/>
+          <a:ext cx="149251" cy="761922"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8635,10 +8635,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="745115"/>
+                <a:pt x="0" y="761922"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="145959" y="745115"/>
+                <a:pt x="149251" y="761922"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8678,8 +8678,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="403068" y="1188710"/>
-          <a:ext cx="1869435" cy="372377"/>
+          <a:off x="375206" y="1215523"/>
+          <a:ext cx="1911602" cy="380776"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8745,8 +8745,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="403068" y="1188710"/>
-        <a:ext cx="1869435" cy="372377"/>
+        <a:off x="375206" y="1215523"/>
+        <a:ext cx="1911602" cy="380776"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{94DE55EC-7771-40EC-A070-7B4619CDF26F}">
@@ -8756,8 +8756,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="257109" y="629783"/>
-          <a:ext cx="145959" cy="1210587"/>
+          <a:off x="225954" y="643988"/>
+          <a:ext cx="149251" cy="1237893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8771,10 +8771,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1210587"/>
+                <a:pt x="0" y="1237893"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="145959" y="1210587"/>
+                <a:pt x="149251" y="1237893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8814,8 +8814,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="403068" y="1654181"/>
-          <a:ext cx="2738116" cy="372377"/>
+          <a:off x="375206" y="1691494"/>
+          <a:ext cx="2799878" cy="380776"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8880,8 +8880,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="403068" y="1654181"/>
-        <a:ext cx="2738116" cy="372377"/>
+        <a:off x="375206" y="1691494"/>
+        <a:ext cx="2799878" cy="380776"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -32514,6 +32514,68 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="ハート 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3108960" y="5128260"/>
+          <a:ext cx="1181100" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -32897,8 +32959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J37" sqref="J36:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -35024,7 +35086,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>

--- a/設計/EscapeToTheSpot(設計)＿うｐ .xlsx
+++ b/設計/EscapeToTheSpot(設計)＿うｐ .xlsx
@@ -6182,8 +6182,8 @@
     <dgm:cxn modelId="{E9BAD75D-72E8-4743-A6CE-C24D611EE14B}" type="presOf" srcId="{A8A01B1E-9F3B-4487-971C-8CFB1EE524AF}" destId="{F20C471C-BF06-4A7A-9A39-E61A09380949}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{8BE774C9-C852-404B-A157-DF543B9000AB}" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{2EB782BA-0526-4051-9BB1-283EA3A601C8}" srcOrd="0" destOrd="0" parTransId="{D1B6EB16-DA67-4570-85ED-1D15E0CB3930}" sibTransId="{CF07EA4D-5461-490A-9A55-BB0696C2D3AD}"/>
     <dgm:cxn modelId="{A8E6437F-B689-4EC6-9A5F-B49301D6846E}" type="presOf" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{AA2849F7-5711-41C9-9EB9-E7D3D2916C47}" type="presOf" srcId="{308324EC-5AF9-49E8-8B42-FD8688C4947F}" destId="{94DE55EC-7771-40EC-A070-7B4619CDF26F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{07632697-76CD-413C-88EE-5819BEF91C86}" srcId="{56103FCD-29F2-4B42-8404-91B73B166952}" destId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" srcOrd="0" destOrd="0" parTransId="{16527AAD-77CD-4D35-9C57-AA88A0052C4C}" sibTransId="{41A2FBC2-0E44-47A7-BE44-305EC57D3E45}"/>
-    <dgm:cxn modelId="{AA2849F7-5711-41C9-9EB9-E7D3D2916C47}" type="presOf" srcId="{308324EC-5AF9-49E8-8B42-FD8688C4947F}" destId="{94DE55EC-7771-40EC-A070-7B4619CDF26F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{89B213AE-7F85-42CB-826D-61A9131212CF}" type="presOf" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{E53176A1-512B-4B5C-BB2A-913DED4A22A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{9C9BE6A1-2109-46D1-9E24-625E6C5DA985}" type="presOf" srcId="{2EB782BA-0526-4051-9BB1-283EA3A601C8}" destId="{B7384D85-C812-40CA-9DBA-40B6CC130C9B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{A9C1CDBB-76FF-4CF8-B64E-41EA43C30BF2}" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{B5C97D2E-A0A4-448C-8255-56A271FDA188}" srcOrd="2" destOrd="0" parTransId="{308324EC-5AF9-49E8-8B42-FD8688C4947F}" sibTransId="{DBE24C96-6112-4FA0-93EF-229B4246BB99}"/>
@@ -6395,8 +6395,8 @@
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{022EC8CC-EB7E-4841-A5EB-48C464A446A7}" type="presOf" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{E53176A1-512B-4B5C-BB2A-913DED4A22A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{27933252-271E-448D-9389-B5D6CF590FC7}" type="presOf" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{F0D62D2F-CB2A-4C41-98CA-C9FBE2EE9993}" type="presOf" srcId="{56103FCD-29F2-4B42-8404-91B73B166952}" destId="{E42C9193-20D7-4C51-ABDA-63DB5879F329}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
-    <dgm:cxn modelId="{27933252-271E-448D-9389-B5D6CF590FC7}" type="presOf" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{07632697-76CD-413C-88EE-5819BEF91C86}" srcId="{56103FCD-29F2-4B42-8404-91B73B166952}" destId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" srcOrd="0" destOrd="0" parTransId="{16527AAD-77CD-4D35-9C57-AA88A0052C4C}" sibTransId="{41A2FBC2-0E44-47A7-BE44-305EC57D3E45}"/>
     <dgm:cxn modelId="{B38FBDB3-BD25-412B-82E4-D61892A018BB}" type="presOf" srcId="{D53EC045-DC2C-414C-B977-6F669E741AF8}" destId="{58CF9B06-E1E5-4863-B9E8-1A3B799C3537}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
     <dgm:cxn modelId="{D3B7B76D-99AD-4848-8510-924ABADF3589}" srcId="{D5E2E931-8F42-4DAA-B934-7BFD1EBB2740}" destId="{D53EC045-DC2C-414C-B977-6F669E741AF8}" srcOrd="0" destOrd="0" parTransId="{3A22512D-2F6B-4E63-837B-2D0CE493F030}" sibTransId="{0874BAA8-90BC-4446-B82F-5EC5E81274D0}"/>
@@ -6954,236 +6954,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2296" y="722802"/>
-          <a:ext cx="3098857" cy="284370"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="28575" tIns="19050" rIns="28575" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" b="1" kern="1200"/>
-            <a:t>Player</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" b="1" kern="1200"/>
-            <a:t>が向かう場所</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" b="1" kern="1200"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" b="1" kern="1200"/>
-            <a:t>ゴール</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" b="1" kern="1200"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2296" y="722802"/>
-        <a:ext cx="3098857" cy="284370"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{EC078C7F-007E-410E-B884-F34462734616}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="312182" y="1007172"/>
-          <a:ext cx="309885" cy="624929"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="624929"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="309885" y="624929"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{58CF9B06-E1E5-4863-B9E8-1A3B799C3537}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="622068" y="1339055"/>
-          <a:ext cx="3010375" cy="586092"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>ランダム生成</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="622068" y="1339055"/>
-        <a:ext cx="3010375" cy="586092"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -7196,225 +6966,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="201280" y="0"/>
-          <a:ext cx="909128" cy="636537"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>敵</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm flipH="1">
-        <a:off x="201280" y="0"/>
-        <a:ext cx="909128" cy="636537"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{807332A5-227E-4ADC-B889-F316431DC2AF}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="292193" y="636537"/>
-          <a:ext cx="111651" cy="477578"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="477578"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="111651" y="477578"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{B7384D85-C812-40CA-9DBA-40B6CC130C9B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="403844" y="795847"/>
-          <a:ext cx="1881117" cy="636537"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200"/>
-            <a:t>Player</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200"/>
-            <a:t>を追いかける</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="403844" y="795847"/>
-        <a:ext cx="1881117" cy="636537"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -7427,492 +6978,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="89108" y="0"/>
-          <a:ext cx="1368458" cy="643988"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" kern="1200"/>
-            <a:t>Player</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm flipH="1">
-        <a:off x="89108" y="0"/>
-        <a:ext cx="1368458" cy="643988"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{807332A5-227E-4ADC-B889-F316431DC2AF}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="225954" y="643988"/>
-          <a:ext cx="149251" cy="285951"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="285951"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="149251" y="285951"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{B7384D85-C812-40CA-9DBA-40B6CC130C9B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="375206" y="739552"/>
-          <a:ext cx="2001539" cy="380776"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200"/>
-            <a:t>カーソルキーで移動</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="375206" y="739552"/>
-        <a:ext cx="2001539" cy="380776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{971A5E3E-65D7-47C0-9BC1-DF941CE250F8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="225954" y="643988"/>
-          <a:ext cx="149251" cy="761922"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="761922"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="149251" y="761922"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{F20C471C-BF06-4A7A-9A39-E61A09380949}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="375206" y="1215523"/>
-          <a:ext cx="1911602" cy="380776"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200"/>
-            <a:t>スポットへ向かうことが目的</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="375206" y="1215523"/>
-        <a:ext cx="1911602" cy="380776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{94DE55EC-7771-40EC-A070-7B4619CDF26F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="225954" y="643988"/>
-          <a:ext cx="149251" cy="1237893"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="1237893"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="149251" y="1237893"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{DE1399B2-10A5-4E55-B06F-5E891F440C1C}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="375206" y="1691494"/>
-          <a:ext cx="2799878" cy="380776"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>敵に衝突したらゲームオーバー</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="375206" y="1691494"/>
-        <a:ext cx="2799878" cy="380776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -7925,236 +6990,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2296" y="722802"/>
-          <a:ext cx="3098857" cy="284370"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="28575" tIns="19050" rIns="28575" bIns="19050" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="666750">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" b="1" kern="1200"/>
-            <a:t>Player</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" b="1" kern="1200"/>
-            <a:t>が向かう場所</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" b="1" kern="1200"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" b="1" kern="1200"/>
-            <a:t>ゴール</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" b="1" kern="1200"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2296" y="722802"/>
-        <a:ext cx="3098857" cy="284370"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{EC078C7F-007E-410E-B884-F34462734616}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="312182" y="1007172"/>
-          <a:ext cx="309885" cy="624929"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="624929"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="309885" y="624929"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{58CF9B06-E1E5-4863-B9E8-1A3B799C3537}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="622068" y="1339055"/>
-          <a:ext cx="3010375" cy="586092"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>ランダム生成</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="622068" y="1339055"/>
-        <a:ext cx="3010375" cy="586092"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -8167,225 +7002,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="201280" y="0"/>
-          <a:ext cx="909128" cy="636537"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>敵</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm flipH="1">
-        <a:off x="201280" y="0"/>
-        <a:ext cx="909128" cy="636537"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{807332A5-227E-4ADC-B889-F316431DC2AF}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="292193" y="636537"/>
-          <a:ext cx="111651" cy="477578"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="477578"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="111651" y="477578"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{B7384D85-C812-40CA-9DBA-40B6CC130C9B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="403844" y="795847"/>
-          <a:ext cx="1881117" cy="636537"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" kern="1200"/>
-            <a:t>Player</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200"/>
-            <a:t>を追いかける</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="403844" y="795847"/>
-        <a:ext cx="1881117" cy="636537"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -8398,492 +7014,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{81AF5D68-A0CF-4611-89FB-5329EFBBB8DD}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="89108" y="0"/>
-          <a:ext cx="1368458" cy="643988"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" kern="1200"/>
-            <a:t>Player</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm flipH="1">
-        <a:off x="89108" y="0"/>
-        <a:ext cx="1368458" cy="643988"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{807332A5-227E-4ADC-B889-F316431DC2AF}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="225954" y="643988"/>
-          <a:ext cx="149251" cy="285951"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="285951"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="149251" y="285951"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{B7384D85-C812-40CA-9DBA-40B6CC130C9B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="375206" y="739552"/>
-          <a:ext cx="2001539" cy="380776"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" kern="1200"/>
-            <a:t>カーソルキーで移動</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="375206" y="739552"/>
-        <a:ext cx="2001539" cy="380776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{971A5E3E-65D7-47C0-9BC1-DF941CE250F8}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="225954" y="643988"/>
-          <a:ext cx="149251" cy="761922"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="761922"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="149251" y="761922"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{F20C471C-BF06-4A7A-9A39-E61A09380949}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="375206" y="1215523"/>
-          <a:ext cx="1911602" cy="380776"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200"/>
-            <a:t>スポットへ向かうことが目的</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="375206" y="1215523"/>
-        <a:ext cx="1911602" cy="380776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{94DE55EC-7771-40EC-A070-7B4619CDF26F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="225954" y="643988"/>
-          <a:ext cx="149251" cy="1237893"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="1237893"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="149251" y="1237893"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{DE1399B2-10A5-4E55-B06F-5E891F440C1C}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="375206" y="1691494"/>
-          <a:ext cx="2799878" cy="380776"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="90000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>敵に衝突したらゲームオーバー</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="375206" y="1691494"/>
-        <a:ext cx="2799878" cy="380776"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -32517,15 +30647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -32534,7 +30664,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3108960" y="5128260"/>
+          <a:off x="3139440" y="5349240"/>
           <a:ext cx="1181100" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="heart">
@@ -32548,6 +30678,15 @@
             <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="114300" h="114300"/>
+        </a:sp3d>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
